--- a/java22 database design/Java22 HDoan Database Design.xlsx
+++ b/java22 database design/Java22 HDoan Database Design.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace-it\code\course-webapp\java22\3. Database\java22 database design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F966DCC4-89FE-4D34-9FAB-C76C3D87464C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F7FF45-3BB3-46C9-8894-3424C48CDF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId1"/>
     <sheet name="B2. Mô hình logic" sheetId="2" r:id="rId2"/>
     <sheet name="B3. Mô hình vật lý" sheetId="4" r:id="rId3"/>
-    <sheet name="B3. Xử lý mối quan hệ" sheetId="6" r:id="rId4"/>
-    <sheet name="Bn. Tạo dữ liệu kiểm thử(mẫu)" sheetId="5" r:id="rId5"/>
+    <sheet name="B3. Mô hình vật lý WIP" sheetId="10" r:id="rId4"/>
+    <sheet name="B4. Tạo dữ liệu kiểm thử" sheetId="12" r:id="rId5"/>
+    <sheet name="B3. Kiểm tra dữ liệu" sheetId="11" r:id="rId6"/>
+    <sheet name="B3. Xử lý mối quan hệ 1-N" sheetId="6" r:id="rId7"/>
+    <sheet name="B3. Xử lý quan hệ N-N" sheetId="7" r:id="rId8"/>
+    <sheet name="B3. Xử lý quan hệ 1-1" sheetId="8" r:id="rId9"/>
+    <sheet name="B3 Self FK" sheetId="9" r:id="rId10"/>
+    <sheet name="Bn. Tạo dữ liệu kiểm thử(mẫu)" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -399,6 +405,235 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={598B10B6-E6F1-40B5-B6AD-C3AD129CB648}</author>
+    <author>tc={85B16A7D-4DA7-409D-A477-42471121604E}</author>
+    <author>tc={FEB531F8-3F37-41C2-9572-96E04C8ECAC8}</author>
+    <author>tc={9DB5297B-73D2-42AE-9A76-79B839CE1D77}</author>
+    <author>tc={15149510-1AD6-4534-986F-C2ED6ADDDE50}</author>
+  </authors>
+  <commentList>
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{598B10B6-E6F1-40B5-B6AD-C3AD129CB648}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Thanh toán khi nhận hàng
+Thanh toán online - chuyển khoản
+Thanh toán online - thẻ ghi nợ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M6" authorId="1" shapeId="0" xr:uid="{85B16A7D-4DA7-409D-A477-42471121604E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Chờ xử lý
+Đã được xử lý chờ đóng gói
+Đang đóng gói
+Đang giao hàng
+Giao hàng thành công
+Giao hàng thất bại
+Hủy đơn hàng
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="2" shapeId="0" xr:uid="{FEB531F8-3F37-41C2-9572-96E04C8ECAC8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    1 MH chỉ có 1 Giá Mua
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="3" shapeId="0" xr:uid="{9DB5297B-73D2-42AE-9A76-79B839CE1D77}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Lưu lịch sử mua hàng của từng khách hàng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M18" authorId="4" shapeId="0" xr:uid="{15149510-1AD6-4534-986F-C2ED6ADDDE50}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Có rất nhiều màu sắc color, rgb, hexa -&gt; sử dụng varchar để lưu chứ k tạo 1 bảng riêng</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4BD9A696-874C-493A-B4B0-F49DB9792A8B}</author>
+    <author>tc={C337F277-3B61-454D-B1DD-3FB292C7DC12}</author>
+    <author>tc={7E594673-E98C-4AE5-A575-6252DC5C62D3}</author>
+    <author>tc={BE51FF11-58CB-48AB-87EE-2CE40C2B1E43}</author>
+    <author>tc={1889A6B9-A887-4E66-B154-B6836B46BB11}</author>
+    <author>tc={3E0884F8-12AF-4883-9EE3-1199104BAB36}</author>
+  </authors>
+  <commentList>
+    <comment ref="G44" authorId="0" shapeId="0" xr:uid="{4BD9A696-874C-493A-B4B0-F49DB9792A8B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    1 MH chỉ có 1 Giá Mua
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C73" authorId="1" shapeId="0" xr:uid="{C337F277-3B61-454D-B1DD-3FB292C7DC12}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Thanh toán khi nhận hàng
+Thanh toán online - chuyển khoản
+Thanh toán online - thẻ ghi nợ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H92" authorId="2" shapeId="0" xr:uid="{7E594673-E98C-4AE5-A575-6252DC5C62D3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Lưu lịch sử mua hàng của từng khách hàng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C167" authorId="3" shapeId="0" xr:uid="{BE51FF11-58CB-48AB-87EE-2CE40C2B1E43}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Chờ xác nhận, Đang đóng gói, Đóng gói hoàn thành chờ vận chuyển, Đang vận chuyển, Giao hàng thành công, Giao hàng thất bại, Hủy đơn hàng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B176" authorId="4" shapeId="0" xr:uid="{1889A6B9-A887-4E66-B154-B6836B46BB11}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Không cần thuộc phòng ban, làm được mọi chức năng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H177" authorId="5" shapeId="0" xr:uid="{3E0884F8-12AF-4883-9EE3-1199104BAB36}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    NhanVien, Quan Ly</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={3503BA87-F97B-4BA2-B285-74026B5E7BB4}</author>
     <author>tc={F417F53F-78F4-4FB2-9932-6B06E3741ADD}</author>
     <author>tc={73A9844D-439C-4A34-96F0-71631781CCF8}</author>
@@ -646,7 +881,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="550">
   <si>
     <t>NhanVien</t>
   </si>
@@ -1558,10 +1793,10 @@
     <t>Nhân Viên 5</t>
   </si>
   <si>
-    <t>SYSDATE - max(STATUS_ID) - ORDER_STATUS_ID</t>
-  </si>
-  <si>
     <t>-- 4. Đơn hàng từ 13  --&gt; Giao hàng thất bại (trạng thái 1,2,3,4,6)</t>
+  </si>
+  <si>
+    <t>Mô hình logic trên cơ sở đối tượng mẫu ==&gt; https://app.diagrams.net/#G1EC3kWNgwWJ-jrYKf-W24OTGjAV-pxvRf#%7B%22pageId%22%3A%22AbEYu_0bn73_d0lKOqK0%22%7D</t>
   </si>
   <si>
     <t>BLOB, CLOB</t>
@@ -1757,14 +1992,565 @@
     <t>C02_ITEM_GROUP_NAME</t>
   </si>
   <si>
-    <t>Mô hình logic trên cơ sở đối tượng mẫu ==&gt; https://app.diagrams.net/#G1ESL9FVhQ8ZiLTsP_3kT6Ml4ZVou5xrcl#%7B%22pageId%22%3A%22RuAqB4DyK-AkS5HEuevx%22%7D</t>
+    <t>NgayBan</t>
+  </si>
+  <si>
+    <t>26.09.2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>27.09.2024</t>
+  </si>
+  <si>
+    <t>29.09.2024</t>
+  </si>
+  <si>
+    <t>28.09.2024</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>QuanLy</t>
+  </si>
+  <si>
+    <t>SDT</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>FK_MH</t>
+  </si>
+  <si>
+    <t>FK_DH</t>
+  </si>
+  <si>
+    <t>PK(MaDH, MaMH)</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>MaCTDH</t>
+  </si>
+  <si>
+    <t>PK(MaCTDH)</t>
+  </si>
+  <si>
+    <t>Unique(MaDH, MaMH)</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>MaNQL</t>
+  </si>
+  <si>
+    <t>FK_NhanVien(MaNV)</t>
+  </si>
+  <si>
+    <t>MaNV(PK)</t>
+  </si>
+  <si>
+    <t>CaLamViec</t>
+  </si>
+  <si>
+    <t>MaSo</t>
+  </si>
+  <si>
+    <t>NgayThuMay</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Sang</t>
+  </si>
+  <si>
+    <t>Trua</t>
+  </si>
+  <si>
+    <t>Chieu</t>
+  </si>
+  <si>
+    <t>Toi</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>Tương tự với các ngày còn lại trong tuần</t>
+  </si>
+  <si>
+    <t>TuMayGio</t>
+  </si>
+  <si>
+    <t>DenMayGio</t>
+  </si>
+  <si>
+    <t>T03_ITEM_DETAIL</t>
+  </si>
+  <si>
+    <t>C03_ITEM_DETAIL_ID</t>
+  </si>
+  <si>
+    <t>C03_ITEM_ID</t>
+  </si>
+  <si>
+    <t>C03_SIZE_ID</t>
+  </si>
+  <si>
+    <t>C03_COLOR</t>
+  </si>
+  <si>
+    <t>C03_AMOUNT</t>
+  </si>
+  <si>
+    <t>C03_SALES_PRICE</t>
+  </si>
+  <si>
+    <t>T100_SUPPLIER</t>
+  </si>
+  <si>
+    <t>T101_SUPPLIER_CHAIN</t>
+  </si>
+  <si>
+    <t>C101_SID</t>
+  </si>
+  <si>
+    <t>C101_ITEM_ID</t>
+  </si>
+  <si>
+    <t>C101_SUPPLIER_ID</t>
+  </si>
+  <si>
+    <t>C101_AMOUNT</t>
+  </si>
+  <si>
+    <t>C101_ENTERING_DATE</t>
+  </si>
+  <si>
+    <t>T04_ORDER</t>
+  </si>
+  <si>
+    <t>C04_ORDER_ID</t>
+  </si>
+  <si>
+    <t>C04_RECEIVER_NAME</t>
+  </si>
+  <si>
+    <t>C04_DELIVERY_ADDRESS</t>
+  </si>
+  <si>
+    <t>C04_RECEIVER_PHONE</t>
+  </si>
+  <si>
+    <t>T09_PAYMENT_METHOD</t>
+  </si>
+  <si>
+    <t>C09_PM_ID</t>
+  </si>
+  <si>
+    <t>C09_PM_TYPE</t>
+  </si>
+  <si>
+    <t>C04_ORDER_TIME</t>
+  </si>
+  <si>
+    <t>T05_ORDER_DETAIL</t>
+  </si>
+  <si>
+    <t>C05_ORDER_ID</t>
+  </si>
+  <si>
+    <t>C05_ITEM_DETAIL_ID</t>
+  </si>
+  <si>
+    <t>C05_AMOUNT</t>
+  </si>
+  <si>
+    <t>C04_CUSTOMER_ID</t>
+  </si>
+  <si>
+    <t>T08_CUSTOMER</t>
+  </si>
+  <si>
+    <t>C08_CUSTOMER_ID</t>
+  </si>
+  <si>
+    <t>C08_CUSTOMER_NAME</t>
+  </si>
+  <si>
+    <t>C08_CUSTOMER_EMAIL</t>
+  </si>
+  <si>
+    <t>C08_CUSTOMER_PHONE</t>
+  </si>
+  <si>
+    <t>C08_CUSTOMER_ADDRESS</t>
+  </si>
+  <si>
+    <t>C08_CUSTOMER_PASSWORD</t>
+  </si>
+  <si>
+    <t>T10_ORDER_STATUS</t>
+  </si>
+  <si>
+    <t>C10_STATUS_ID</t>
+  </si>
+  <si>
+    <t>C10_STATUS_DESC</t>
+  </si>
+  <si>
+    <t>T06_ORDER_STATUS_DETAIL</t>
+  </si>
+  <si>
+    <t>C06_ORDER_ID</t>
+  </si>
+  <si>
+    <t>C06_STATUS_ID</t>
+  </si>
+  <si>
+    <t>C06_EMPLOYEE_ID</t>
+  </si>
+  <si>
+    <t>T07_BILL</t>
+  </si>
+  <si>
+    <t>C07_BILL_ID</t>
+  </si>
+  <si>
+    <t>C07_DELIVERY_FEE</t>
+  </si>
+  <si>
+    <t>C07_TOTAL_OF_MONEY</t>
+  </si>
+  <si>
+    <t>C07_ORDER_ID</t>
+  </si>
+  <si>
+    <t>T11_TITLE</t>
+  </si>
+  <si>
+    <t>C11_TITLE_ID</t>
+  </si>
+  <si>
+    <t>C11_TITLE_NAME</t>
+  </si>
+  <si>
+    <t>Size S - Nu - …</t>
+  </si>
+  <si>
+    <t>Size S - Nam - …</t>
+  </si>
+  <si>
+    <t>T12_SIZE</t>
+  </si>
+  <si>
+    <t>C12_SIZE_NAME</t>
+  </si>
+  <si>
+    <t>C12_GENDER</t>
+  </si>
+  <si>
+    <t>T13_EMPLOYEE</t>
+  </si>
+  <si>
+    <t>C13_EMPLOYEE_ID</t>
+  </si>
+  <si>
+    <t>C13_EMPLOYEE_NAME</t>
+  </si>
+  <si>
+    <t>C13_TITLE_ID</t>
+  </si>
+  <si>
+    <t>SoTien</t>
+  </si>
+  <si>
+    <t>NhanCong</t>
+  </si>
+  <si>
+    <t>CaLV</t>
+  </si>
+  <si>
+    <t>ThoiGian</t>
+  </si>
+  <si>
+    <t>SYSTIME</t>
+  </si>
+  <si>
+    <t>C100_SUPPLIER_ID</t>
+  </si>
+  <si>
+    <t>C100_SUPPLIER_NAME</t>
+  </si>
+  <si>
+    <t>C100_SUPPLIER_TAX</t>
+  </si>
+  <si>
+    <t>NCC S1</t>
+  </si>
+  <si>
+    <t>NCC S2</t>
+  </si>
+  <si>
+    <t>NCC S3</t>
+  </si>
+  <si>
+    <t>NCC S4</t>
+  </si>
+  <si>
+    <t>NCC S5</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>Mặt Hàng 1-4</t>
+  </si>
+  <si>
+    <t>Mặt Hàng 1-8</t>
+  </si>
+  <si>
+    <t>Mặt Hàng 9-12</t>
+  </si>
+  <si>
+    <t>Mặt Hàng 13-16</t>
+  </si>
+  <si>
+    <t>Mặt Hàng 17-20</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>[220, 400, 582, 600, 300]</t>
+  </si>
+  <si>
+    <t>Mặt hàng mới nhất 20</t>
+  </si>
+  <si>
+    <t>là ngày/giờ hiện tại</t>
+  </si>
+  <si>
+    <t>Các mặt hàng bé hơn thì cứ</t>
+  </si>
+  <si>
+    <t>-2 days</t>
+  </si>
+  <si>
+    <t>[100, 120, 140, 160, 180, 200]</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>C12_SIZE_DESC</t>
+  </si>
+  <si>
+    <t>100 records</t>
+  </si>
+  <si>
+    <t>Unique(ItemId, Sid, Date)</t>
+  </si>
+  <si>
+    <t>Sử dụng dữ liệu từ các bảng ITEM, SIZE
+---
+ITEM, SIZE có ID lẻ: AMOUNT = 185, SALES_PRICE = BUY_PRICE * 2 + SIZE_ID * 5
+ITEM, SIZE có ID chẵn: AMOUNT = 220, SALES_PRICE = BUY_PRICE * 2 + SIZE_ID * 5 + 20
+---
+1 ITEM có thể có nhiều BUY_PRICE, lấy max BUY_PRICE</t>
+  </si>
+  <si>
+    <t>Thanh toán khi nhận hàng</t>
+  </si>
+  <si>
+    <t>Thanh toán online - chuyển khoản</t>
+  </si>
+  <si>
+    <t>Thanh toán online - thẻ ghi nợ</t>
+  </si>
+  <si>
+    <t>Khách hàng A1</t>
+  </si>
+  <si>
+    <t>Khách hàng A2</t>
+  </si>
+  <si>
+    <t>Khách hàng A3</t>
+  </si>
+  <si>
+    <t>Khách hàng A4</t>
+  </si>
+  <si>
+    <t>Khách hàng A5</t>
+  </si>
+  <si>
+    <t>Khách hàng A6</t>
+  </si>
+  <si>
+    <t>Khách hàng A7</t>
+  </si>
+  <si>
+    <t>Khách hàng A8</t>
+  </si>
+  <si>
+    <t>Khách hàng A9</t>
+  </si>
+  <si>
+    <t>Khách hàng A10</t>
+  </si>
+  <si>
+    <t>Sử dụng code để xử lý</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT [1,20]</t>
+  </si>
+  <si>
+    <t>Người nhận X[id]</t>
+  </si>
+  <si>
+    <t>Địa chỉ X[id]</t>
+  </si>
+  <si>
+    <t>C04_PAYMENT_METHOD_ID</t>
+  </si>
+  <si>
+    <t>Random ID của PAYMENT_METHOD</t>
+  </si>
+  <si>
+    <t>SYSDATE - 1H - loop</t>
+  </si>
+  <si>
+    <t>Đơn hàng 1,11 là của Khách hàng 1</t>
+  </si>
+  <si>
+    <t>Đơn hàng 2,12 là của Khách hàng 2</t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Khi bảng N-N..N có khóa chính là nhiều columns thì</t>
+  </si>
+  <si>
+    <t>+ tạo ra 1 column mới làm khóa chính giúp mình</t>
+  </si>
+  <si>
+    <t>1. truy vấn dữ liệu cho record chỉ truy vấn cho PK theo 1 column</t>
+  </si>
+  <si>
+    <t>2. nếu bảng này là bảng cha, có bảng con liên kết đến, trong bảng con chỉ cần tạo 1 column là FK</t>
+  </si>
+  <si>
+    <t>+ nếu cho khóa chính là N columns</t>
+  </si>
+  <si>
+    <t>SYSDATE - [max(STATUS_ID) - ORDER_STATUS_Id]</t>
+  </si>
+  <si>
+    <t>C06_LAST_UPDATED</t>
+  </si>
+  <si>
+    <t>C06_OS_DETAIL_ID</t>
+  </si>
+  <si>
+    <t>Tạm thời để trống, xử lý khi làm bài tập</t>
+  </si>
+  <si>
+    <t>C10_ORDER_STATUS_ID</t>
+  </si>
+  <si>
+    <t>C10_ORDER_STATUS_DESC</t>
+  </si>
+  <si>
+    <t>C13_EMPLOYEE_EMAIL</t>
+  </si>
+  <si>
+    <t>C13_EMPLOYEE_ADDRESS</t>
+  </si>
+  <si>
+    <t>C13_EMPLOYEE_PHONE</t>
+  </si>
+  <si>
+    <t>C13_EMPLOYEE_PASSWORD</t>
+  </si>
+  <si>
+    <t>C09_PAYMENT_METHOD_ID</t>
+  </si>
+  <si>
+    <t>C09_PAYMENT_METHOD_TYPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1938,6 +2724,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1971,7 +2772,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2003,11 +2804,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2150,6 +2975,52 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2162,6 +3033,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2169,9 +3046,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2550,6 +3424,62 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="L6" dT="2024-09-22T10:05:50.31" personId="{B15EC451-E8A9-489D-8A37-9C829A4785F3}" id="{598B10B6-E6F1-40B5-B6AD-C3AD129CB648}">
+    <text>Thanh toán khi nhận hàng
+Thanh toán online - chuyển khoản
+Thanh toán online - thẻ ghi nợ</text>
+  </threadedComment>
+  <threadedComment ref="M6" dT="2024-09-22T10:05:50.31" personId="{B15EC451-E8A9-489D-8A37-9C829A4785F3}" id="{85B16A7D-4DA7-409D-A477-42471121604E}">
+    <text xml:space="preserve">Chờ xử lý
+Đã được xử lý chờ đóng gói
+Đang đóng gói
+Đang giao hàng
+Giao hàng thành công
+Giao hàng thất bại
+Hủy đơn hàng
+</text>
+  </threadedComment>
+  <threadedComment ref="C10" dT="2024-09-21T07:57:36.00" personId="{B15EC451-E8A9-489D-8A37-9C829A4785F3}" id="{FEB531F8-3F37-41C2-9572-96E04C8ECAC8}">
+    <text xml:space="preserve">1 MH chỉ có 1 Giá Mua
+</text>
+  </threadedComment>
+  <threadedComment ref="G11" dT="2024-09-22T10:28:34.25" personId="{B15EC451-E8A9-489D-8A37-9C829A4785F3}" id="{9DB5297B-73D2-42AE-9A76-79B839CE1D77}">
+    <text>Lưu lịch sử mua hàng của từng khách hàng</text>
+  </threadedComment>
+  <threadedComment ref="M18" dT="2024-04-02T12:50:53.71" personId="{B15EC451-E8A9-489D-8A37-9C829A4785F3}" id="{15149510-1AD6-4534-986F-C2ED6ADDDE50}">
+    <text>Có rất nhiều màu sắc color, rgb, hexa -&gt; sử dụng varchar để lưu chứ k tạo 1 bảng riêng</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G44" dT="2024-09-21T07:57:36.00" personId="{B15EC451-E8A9-489D-8A37-9C829A4785F3}" id="{4BD9A696-874C-493A-B4B0-F49DB9792A8B}">
+    <text xml:space="preserve">1 MH chỉ có 1 Giá Mua
+</text>
+  </threadedComment>
+  <threadedComment ref="C73" dT="2024-09-22T10:05:50.31" personId="{B15EC451-E8A9-489D-8A37-9C829A4785F3}" id="{C337F277-3B61-454D-B1DD-3FB292C7DC12}">
+    <text>Thanh toán khi nhận hàng
+Thanh toán online - chuyển khoản
+Thanh toán online - thẻ ghi nợ</text>
+  </threadedComment>
+  <threadedComment ref="H92" dT="2024-09-22T10:28:34.25" personId="{B15EC451-E8A9-489D-8A37-9C829A4785F3}" id="{7E594673-E98C-4AE5-A575-6252DC5C62D3}">
+    <text>Lưu lịch sử mua hàng của từng khách hàng</text>
+  </threadedComment>
+  <threadedComment ref="C167" dT="2024-04-06T14:25:21.49" personId="{B15EC451-E8A9-489D-8A37-9C829A4785F3}" id="{BE51FF11-58CB-48AB-87EE-2CE40C2B1E43}">
+    <text>Chờ xác nhận, Đang đóng gói, Đóng gói hoàn thành chờ vận chuyển, Đang vận chuyển, Giao hàng thành công, Giao hàng thất bại, Hủy đơn hàng</text>
+  </threadedComment>
+  <threadedComment ref="B176" dT="2024-03-19T13:48:38.72" personId="{B15EC451-E8A9-489D-8A37-9C829A4785F3}" id="{1889A6B9-A887-4E66-B154-B6836B46BB11}">
+    <text>Không cần thuộc phòng ban, làm được mọi chức năng</text>
+  </threadedComment>
+  <threadedComment ref="H177" dT="2024-03-19T13:49:56.69" personId="{B15EC451-E8A9-489D-8A37-9C829A4785F3}" id="{3E0884F8-12AF-4883-9EE3-1199104BAB36}">
+    <text>NhanVien, Quan Ly</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D4" dT="2024-03-19T12:47:34.71" personId="{B15EC451-E8A9-489D-8A37-9C829A4785F3}" id="{3503BA87-F97B-4BA2-B285-74026B5E7BB4}">
     <text>Các sản phầm mua vào đều chung giá, k quan tâm kích cỡ, màu sắc, chất liệu</text>
   </threadedComment>
@@ -2975,1600 +3905,316 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02AFA64-4F84-47ED-AB68-8CF3C6F7C8A6}">
-  <dimension ref="B1:M31"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777859F8-69FD-43AD-961B-1F21328F8FF2}">
+  <dimension ref="A2:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20" style="1" customWidth="1"/>
-    <col min="13" max="30" width="14.6640625" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258E744B-65C2-4DE9-994B-E5E54772E544}">
-  <dimension ref="B1:P60"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="28.6640625" style="1" customWidth="1"/>
-    <col min="17" max="29" width="14.6640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="14"/>
-    </row>
-    <row r="7" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-    </row>
-    <row r="18" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="2:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="22" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="2:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="2:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98009278-2941-496E-965B-74D29927B749}">
-  <dimension ref="A2:J46"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D2" t="s">
-        <v>363</v>
+      <c r="C2" s="41" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E3" s="43" t="s">
-        <v>351</v>
-      </c>
-      <c r="H3" t="s">
-        <v>349</v>
-      </c>
+      <c r="E3" s="43"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
-        <v>354</v>
-      </c>
+      <c r="A5" s="46"/>
       <c r="C5" s="41" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="39"/>
-      <c r="E5" s="44" t="s">
-        <v>352</v>
-      </c>
       <c r="F5" s="39"/>
-      <c r="H5" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="39"/>
+      <c r="G5" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="39"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" s="42" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="39"/>
-      <c r="H6" s="42" t="s">
-        <v>317</v>
+        <v>380</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>397</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>369</v>
+      </c>
       <c r="C7" s="40">
         <v>1</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="E7" s="40">
-        <v>1</v>
-      </c>
-      <c r="F7" s="39"/>
-      <c r="H7" s="40">
-        <v>1</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>345</v>
+      <c r="D7" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="E7" s="52">
+        <v>123456789</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="40">
+        <v>1</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" s="40">
         <v>2</v>
       </c>
-      <c r="D8" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="E8" s="40">
-        <v>1</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="H8" s="40">
-        <v>2</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>346</v>
+      <c r="D8" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8" s="52">
+        <v>123456789</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>395</v>
+      </c>
+      <c r="G8" s="52">
+        <v>1</v>
+      </c>
+      <c r="I8" s="40">
+        <v>2</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="40">
         <v>3</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="E9" s="40">
+      <c r="D9" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="E9" s="52">
+        <v>123456789</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>396</v>
+      </c>
+      <c r="G9" s="52">
+        <v>1</v>
+      </c>
+      <c r="I9" s="40">
         <v>3</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="H9" s="40">
-        <v>3</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>347</v>
+      <c r="J9" s="51" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="40">
         <v>4</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="E10" s="40">
-        <v>3</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="H10" s="40">
-        <v>4</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>348</v>
+      <c r="D10" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="E10" s="52">
+        <v>123456789</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>396</v>
+      </c>
+      <c r="G10" s="52">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="40">
         <v>5</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="E11" s="40">
-        <v>2</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="D11" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="E11" s="52">
+        <v>123456789</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>396</v>
+      </c>
+      <c r="G11" s="52">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" s="40">
         <v>6</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="E12" s="40">
-        <v>2</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="D12" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="E12" s="52">
+        <v>123456789</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>396</v>
+      </c>
+      <c r="G12" s="52">
+        <v>2</v>
+      </c>
       <c r="H12" s="39"/>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F14" s="45"/>
+    </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>350</v>
-      </c>
-      <c r="H15" t="s">
-        <v>349</v>
+      <c r="C15" s="41" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E16" s="43"/>
-      <c r="J16" s="45" t="s">
-        <v>352</v>
-      </c>
+      <c r="C16" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="C17" s="41" t="s">
+      <c r="A17" s="47"/>
+      <c r="C17" s="28">
+        <v>1</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="28">
+        <v>2</v>
+      </c>
+      <c r="D18" s="28">
+        <v>1</v>
+      </c>
+      <c r="F18" s="45"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="28">
+        <v>3</v>
+      </c>
+      <c r="D19" s="28">
+        <v>1</v>
+      </c>
+      <c r="F19" s="45"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="28">
+        <v>4</v>
+      </c>
+      <c r="D20" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="28">
         <v>5</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="H17" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="45" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="42" t="s">
+      <c r="D21" s="28">
+        <v>2</v>
+      </c>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="28">
         <v>6</v>
       </c>
-      <c r="D18" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="H18" s="42" t="s">
-        <v>317</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="40">
-        <v>1</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="H19" s="40">
-        <v>1</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="J19" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="40">
-        <v>2</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="H20" s="40">
-        <v>2</v>
-      </c>
-      <c r="I20" s="40" t="s">
-        <v>346</v>
-      </c>
-      <c r="J20" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="40">
-        <v>3</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="H21" s="40">
-        <v>3</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="J21" s="40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="40">
-        <v>4</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="E22" s="39"/>
+      <c r="D22" s="28">
+        <v>2</v>
+      </c>
       <c r="F22" s="39"/>
-      <c r="H22" s="40">
-        <v>4</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="J22" s="40">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="40">
-        <v>5</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="E23" s="39"/>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C24" s="40">
-        <v>6</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="E24" s="39"/>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>350</v>
-      </c>
-      <c r="H27" t="s">
-        <v>349</v>
-      </c>
-    </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E28" s="43"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="39"/>
+      <c r="A29" s="48"/>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
-      <c r="H29" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="39"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>10</v>
-      </c>
+      <c r="A30" s="48"/>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
-      <c r="H30" s="42" t="s">
-        <v>317</v>
-      </c>
-      <c r="I30" s="42" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="40">
-        <v>1</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>339</v>
-      </c>
+      <c r="A31" s="48"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
-      <c r="H31" s="40">
-        <v>1</v>
-      </c>
-      <c r="I31" s="40" t="s">
-        <v>345</v>
-      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="40">
-        <v>2</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>340</v>
-      </c>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
-      <c r="H32" s="40">
-        <v>2</v>
-      </c>
-      <c r="I32" s="40" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C33" s="40">
-        <v>3</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>341</v>
-      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
-      <c r="H33" s="40">
-        <v>3</v>
-      </c>
-      <c r="I33" s="40" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C34" s="40">
-        <v>4</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="H34" s="40">
-        <v>4</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C35" s="40">
-        <v>5</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C36" s="40">
-        <v>6</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.3">
       <c r="H36" s="39"/>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E38" t="s">
-        <v>360</v>
-      </c>
-      <c r="H38" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E39" s="41" t="s">
-        <v>356</v>
-      </c>
-      <c r="F39" s="41"/>
-      <c r="H39" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E40" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E41" s="40">
-        <v>1</v>
-      </c>
-      <c r="F41" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E42" s="40">
-        <v>2</v>
-      </c>
-      <c r="F42" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E43" s="40">
-        <v>3</v>
-      </c>
-      <c r="F43" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E44" s="40">
-        <v>4</v>
-      </c>
-      <c r="F44" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E45" s="40">
-        <v>5</v>
-      </c>
-      <c r="F45" s="40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E46" s="40">
-        <v>6</v>
-      </c>
-      <c r="F46" s="40">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8B0AB7-EB07-4BA0-B0D1-595B07C9234C}">
   <dimension ref="B1:N250"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6146,16 +5792,16 @@
     </row>
     <row r="72" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="54" t="s">
+      <c r="C73" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
     </row>
     <row r="74" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
     </row>
     <row r="75" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -6179,14 +5825,14 @@
     </row>
     <row r="78" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="54" t="s">
+      <c r="C79" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="D79" s="54"/>
+      <c r="D79" s="72"/>
     </row>
     <row r="80" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="72"/>
     </row>
     <row r="81" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6221,30 +5867,30 @@
       </c>
     </row>
     <row r="86" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="55" t="s">
+      <c r="C86" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="D86" s="54"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="54"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
     </row>
     <row r="87" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="54"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
     </row>
     <row r="88" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="54"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
     </row>
     <row r="89" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="54"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="54"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
     </row>
     <row r="90" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -6261,18 +5907,18 @@
       </c>
     </row>
     <row r="93" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="C93" s="56"/>
+      <c r="C93" s="74"/>
     </row>
     <row r="94" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="54"/>
-      <c r="C94" s="54"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="72"/>
     </row>
     <row r="95" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="54"/>
-      <c r="C95" s="54"/>
+      <c r="B95" s="72"/>
+      <c r="C95" s="72"/>
     </row>
     <row r="96" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -6295,11 +5941,11 @@
       </c>
     </row>
     <row r="99" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="57" t="s">
+      <c r="B99" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="C99" s="57"/>
-      <c r="D99" s="57"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="71"/>
       <c r="F99" s="14" t="s">
         <v>112</v>
       </c>
@@ -6314,14 +5960,14 @@
       </c>
     </row>
     <row r="100" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="57"/>
-      <c r="C100" s="57"/>
-      <c r="D100" s="57"/>
+      <c r="B100" s="71"/>
+      <c r="C100" s="71"/>
+      <c r="D100" s="71"/>
     </row>
     <row r="101" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="57"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="57"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="71"/>
       <c r="F101" s="31" t="s">
         <v>297</v>
       </c>
@@ -6329,7 +5975,7 @@
         <v>253</v>
       </c>
       <c r="I101" s="27" t="s">
-        <v>301</v>
+        <v>538</v>
       </c>
     </row>
     <row r="102" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -6403,7 +6049,7 @@
         <v>2</v>
       </c>
       <c r="F105" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H105" s="27" t="s">
         <v>300</v>
@@ -6738,70 +6384,70 @@
     <row r="142" spans="2:4" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="143" spans="2:4" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="144" spans="2:4" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" s="27" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="209" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="210" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="211" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6856,4 +6502,6183 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02AFA64-4F84-47ED-AB68-8CF3C6F7C8A6}">
+  <dimension ref="B1:N80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" customWidth="1"/>
+    <col min="13" max="30" width="14.6640625" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="M14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="M15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="M16" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J17" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="17"/>
+    </row>
+    <row r="18" spans="2:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="57" t="s">
+        <v>401</v>
+      </c>
+      <c r="K18" s="57" t="s">
+        <v>402</v>
+      </c>
+      <c r="L18" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="M18" s="57" t="s">
+        <v>478</v>
+      </c>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="2:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="K19" s="57">
+        <v>2</v>
+      </c>
+      <c r="L19" s="57">
+        <v>1</v>
+      </c>
+      <c r="M19" s="57">
+        <v>80</v>
+      </c>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="2:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="57" t="s">
+        <v>409</v>
+      </c>
+      <c r="K20" s="57">
+        <v>2</v>
+      </c>
+      <c r="L20" s="57">
+        <v>2</v>
+      </c>
+      <c r="M20" s="57">
+        <v>100</v>
+      </c>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="2:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="K21" s="57">
+        <v>2</v>
+      </c>
+      <c r="L21" s="57">
+        <v>3</v>
+      </c>
+      <c r="M21" s="57">
+        <v>80</v>
+      </c>
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" spans="2:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="K22" s="57">
+        <v>2</v>
+      </c>
+      <c r="L22" s="57">
+        <v>4</v>
+      </c>
+      <c r="M22" s="57">
+        <v>120</v>
+      </c>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="2:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J23" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="K23" s="57">
+        <v>3</v>
+      </c>
+      <c r="L23" s="57">
+        <v>1</v>
+      </c>
+      <c r="M23" s="57">
+        <v>80</v>
+      </c>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="2:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="K24" s="57">
+        <v>3</v>
+      </c>
+      <c r="L24" s="57">
+        <v>2</v>
+      </c>
+      <c r="M24" s="57">
+        <v>100</v>
+      </c>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="2:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="57" t="s">
+        <v>414</v>
+      </c>
+      <c r="K25" s="57">
+        <v>3</v>
+      </c>
+      <c r="L25" s="57">
+        <v>3</v>
+      </c>
+      <c r="M25" s="57">
+        <v>80</v>
+      </c>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="2:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="K26" s="57">
+        <v>3</v>
+      </c>
+      <c r="L26" s="57">
+        <v>4</v>
+      </c>
+      <c r="M26" s="57">
+        <v>120</v>
+      </c>
+      <c r="N26" s="17"/>
+    </row>
+    <row r="27" spans="2:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+    </row>
+    <row r="28" spans="2:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="9"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+    </row>
+    <row r="29" spans="2:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="61"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+    </row>
+    <row r="30" spans="2:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="9"/>
+      <c r="J30" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="17"/>
+    </row>
+    <row r="31" spans="2:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="57" t="s">
+        <v>401</v>
+      </c>
+      <c r="K31" s="57" t="s">
+        <v>402</v>
+      </c>
+      <c r="L31" s="57" t="s">
+        <v>417</v>
+      </c>
+      <c r="M31" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="N31" s="17"/>
+    </row>
+    <row r="32" spans="2:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="K32" s="57">
+        <v>2</v>
+      </c>
+      <c r="L32" s="57">
+        <v>6</v>
+      </c>
+      <c r="M32" s="57">
+        <v>10</v>
+      </c>
+      <c r="N32" s="57">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="8:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="57" t="s">
+        <v>409</v>
+      </c>
+      <c r="K33" s="57">
+        <v>2</v>
+      </c>
+      <c r="L33" s="57">
+        <v>10</v>
+      </c>
+      <c r="M33" s="57">
+        <v>2</v>
+      </c>
+      <c r="N33" s="57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="8:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="K34" s="57">
+        <v>2</v>
+      </c>
+      <c r="L34" s="57">
+        <v>2</v>
+      </c>
+      <c r="M34" s="57">
+        <v>6</v>
+      </c>
+      <c r="N34" s="57">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="8:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="K35" s="57">
+        <v>2</v>
+      </c>
+      <c r="L35" s="57">
+        <v>6</v>
+      </c>
+      <c r="M35" s="57">
+        <v>10</v>
+      </c>
+      <c r="N35" s="57">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="8:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="K36" s="57">
+        <v>3</v>
+      </c>
+      <c r="L36" s="57">
+        <v>6</v>
+      </c>
+      <c r="M36" s="57">
+        <v>10</v>
+      </c>
+      <c r="N36" s="57">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="8:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="K37" s="57">
+        <v>3</v>
+      </c>
+      <c r="L37" s="57">
+        <v>10</v>
+      </c>
+      <c r="M37" s="57">
+        <v>2</v>
+      </c>
+      <c r="N37" s="57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="8:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="9"/>
+      <c r="J38" s="57" t="s">
+        <v>414</v>
+      </c>
+      <c r="K38" s="57">
+        <v>3</v>
+      </c>
+      <c r="L38" s="57">
+        <v>2</v>
+      </c>
+      <c r="M38" s="57">
+        <v>6</v>
+      </c>
+      <c r="N38" s="57">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="8:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="K39" s="57">
+        <v>3</v>
+      </c>
+      <c r="L39" s="57">
+        <v>6</v>
+      </c>
+      <c r="M39" s="57">
+        <v>10</v>
+      </c>
+      <c r="N39" s="57">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="8:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J40" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+    </row>
+    <row r="41" spans="8:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="8:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="8:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J43" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="8:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="45" spans="8:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="46" spans="8:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="8:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="8:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258E744B-65C2-4DE9-994B-E5E54772E544}">
+  <dimension ref="B1:P60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="28.6640625" style="1" customWidth="1"/>
+    <col min="17" max="29" width="14.6640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+    </row>
+    <row r="18" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="2:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="2:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="2:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="2:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="2:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1DF7D6-F95C-4B2D-93D8-507FCBA4401D}">
+  <dimension ref="B1:U60"/>
+  <sheetViews>
+    <sheetView topLeftCell="J3" zoomScale="76" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="27.109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="28.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="28.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="30.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="28.6640625" style="1" customWidth="1"/>
+    <col min="22" max="34" width="14.6640625" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="2:21" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="2:21" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+    </row>
+    <row r="6" spans="2:21" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="14"/>
+    </row>
+    <row r="7" spans="2:21" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="2:21" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="2:21" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="58" t="s">
+        <v>432</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="2:21" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="2:21" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="2:21" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="2:21" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="2:21" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="2:21" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:21" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="O18" s="1">
+        <v>2</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17">
+        <v>3</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17">
+        <v>4</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="1">
+        <v>5</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="1">
+        <v>6</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="17">
+        <v>7</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="17">
+        <v>8</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="4"/>
+      <c r="P25" s="15"/>
+    </row>
+    <row r="26" spans="4:18" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="4:18" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="4:18" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="4:18" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="4:18" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="4:18" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" s="22"/>
+      <c r="L31" s="6"/>
+      <c r="P31" s="21"/>
+    </row>
+    <row r="32" spans="4:18" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="P37" s="10"/>
+    </row>
+    <row r="38" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="P47" s="12"/>
+    </row>
+    <row r="48" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="P48" s="12"/>
+    </row>
+    <row r="49" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="P49" s="12"/>
+    </row>
+    <row r="50" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="P50" s="12"/>
+    </row>
+    <row r="51" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="P51" s="12"/>
+    </row>
+    <row r="52" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="P52" s="12"/>
+    </row>
+    <row r="53" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="4:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E20DDFD-7038-45D3-A551-EC11FF1DC63E}">
+  <dimension ref="B1:H537"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="78" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="29" style="27" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="43" style="27" customWidth="1"/>
+    <col min="7" max="7" width="30.88671875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" style="27" customWidth="1"/>
+    <col min="9" max="29" width="24.6640625" style="27" customWidth="1"/>
+    <col min="30" max="16384" width="9.109375" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="28">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="D4" s="28">
+        <v>108767251</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="28">
+        <v>2</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D5" s="28">
+        <v>108767252</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="28">
+        <v>3</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="D6" s="28">
+        <v>108767253</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="28">
+        <v>4</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="D7" s="28">
+        <v>108767254</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="28">
+        <v>5</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="D8" s="28">
+        <v>108767255</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="28">
+        <v>1</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="28">
+        <v>2</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="28">
+        <v>3</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="28">
+        <v>4</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="28">
+        <v>5</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="28">
+        <v>6</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="28">
+        <v>7</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="28">
+        <v>1</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="28">
+        <v>2</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="28">
+        <v>3</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="28">
+        <v>4</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="28">
+        <v>5</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="28">
+        <v>6</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="28">
+        <v>7</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="28">
+        <v>8</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="28">
+        <v>9</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="28">
+        <v>10</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="28">
+        <v>11</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="28">
+        <v>12</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="28">
+        <v>13</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="28">
+        <v>14</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="28">
+        <v>15</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="28">
+        <v>16</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="28">
+        <v>17</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="28">
+        <v>18</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="28">
+        <v>19</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="28">
+        <v>20</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="C44" s="58" t="s">
+        <v>429</v>
+      </c>
+      <c r="D44" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F44" s="58" t="s">
+        <v>432</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="D45" s="28">
+        <v>1</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="28"/>
+      <c r="C46" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="D46" s="28">
+        <v>2</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="28"/>
+      <c r="C47" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="D47" s="28">
+        <v>3</v>
+      </c>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="G47" s="28"/>
+    </row>
+    <row r="48" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="28"/>
+      <c r="C48" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="D48" s="28">
+        <v>4</v>
+      </c>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="G48" s="28"/>
+    </row>
+    <row r="49" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="28"/>
+      <c r="C49" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="D49" s="28">
+        <v>5</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+    </row>
+    <row r="50" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="28">
+        <v>1</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="28">
+        <v>0</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="28">
+        <v>2</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="28">
+        <v>0</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="28">
+        <v>3</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="28">
+        <v>0</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="28">
+        <v>4</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="28">
+        <v>0</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="28">
+        <v>5</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="28">
+        <v>0</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="28">
+        <v>6</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="28">
+        <v>1</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="28">
+        <v>7</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="28">
+        <v>1</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="28">
+        <v>8</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="28">
+        <v>1</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="28">
+        <v>9</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="28">
+        <v>1</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="28">
+        <v>10</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="28">
+        <v>1</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="C65" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="D65" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="E65" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="27" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="70" t="s">
+        <v>508</v>
+      </c>
+      <c r="D67" s="68"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
+    </row>
+    <row r="68" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+    </row>
+    <row r="69" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+    </row>
+    <row r="70" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="68"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="68"/>
+    </row>
+    <row r="71" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="28">
+        <v>1</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="28">
+        <v>2</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="28">
+        <v>3</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C78" s="62" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="28">
+        <v>1</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F80" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G80" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="28">
+        <v>2</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="F81" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G81" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="28">
+        <v>3</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="F82" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G82" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="28">
+        <v>4</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E83" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F83" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G83" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="28">
+        <v>5</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E84" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F84" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G84" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="28">
+        <v>6</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="F85" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G85" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="28">
+        <v>7</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E86" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="F86" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G86" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="28">
+        <v>8</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E87" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="F87" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G87" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="28">
+        <v>9</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E88" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="F88" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G88" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="28">
+        <v>10</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E89" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F89" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G89" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F92" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="H92" s="26" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="D93" s="28">
+        <v>258369741</v>
+      </c>
+      <c r="E93" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="F93" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="G93" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="H93" s="28" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="28"/>
+      <c r="C94" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="28"/>
+      <c r="C95" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="C99" s="71"/>
+      <c r="D99" s="71"/>
+    </row>
+    <row r="100" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="71"/>
+      <c r="C100" s="71"/>
+      <c r="D100" s="71"/>
+    </row>
+    <row r="101" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="71"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="71"/>
+    </row>
+    <row r="102" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="28">
+        <v>1</v>
+      </c>
+      <c r="C102" s="28">
+        <v>1</v>
+      </c>
+      <c r="D102" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="28">
+        <v>1</v>
+      </c>
+      <c r="C103" s="28">
+        <v>3</v>
+      </c>
+      <c r="D103" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="28">
+        <v>2</v>
+      </c>
+      <c r="C104" s="28">
+        <v>4</v>
+      </c>
+      <c r="D104" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="28">
+        <v>2</v>
+      </c>
+      <c r="C105" s="28">
+        <v>5</v>
+      </c>
+      <c r="D105" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="28">
+        <v>3</v>
+      </c>
+      <c r="C106" s="28">
+        <v>6</v>
+      </c>
+      <c r="D106" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="28">
+        <v>3</v>
+      </c>
+      <c r="C107" s="28">
+        <v>2</v>
+      </c>
+      <c r="D107" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="28">
+        <v>4</v>
+      </c>
+      <c r="C108" s="28">
+        <v>8</v>
+      </c>
+      <c r="D108" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="28">
+        <v>4</v>
+      </c>
+      <c r="C109" s="28">
+        <v>12</v>
+      </c>
+      <c r="D109" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="28">
+        <v>5</v>
+      </c>
+      <c r="C110" s="28">
+        <v>88</v>
+      </c>
+      <c r="D110" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="28">
+        <v>5</v>
+      </c>
+      <c r="C111" s="28">
+        <v>22</v>
+      </c>
+      <c r="D111" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="28">
+        <v>5</v>
+      </c>
+      <c r="C112" s="28">
+        <v>11</v>
+      </c>
+      <c r="D112" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="28">
+        <v>5</v>
+      </c>
+      <c r="C113" s="28">
+        <v>33</v>
+      </c>
+      <c r="D113" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="28">
+        <v>6</v>
+      </c>
+      <c r="C114" s="28">
+        <v>2</v>
+      </c>
+      <c r="D114" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="28">
+        <v>7</v>
+      </c>
+      <c r="C115" s="28">
+        <v>1</v>
+      </c>
+      <c r="D115" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="28">
+        <v>8</v>
+      </c>
+      <c r="C116" s="28">
+        <v>27</v>
+      </c>
+      <c r="D116" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="28">
+        <v>8</v>
+      </c>
+      <c r="C117" s="28">
+        <v>23</v>
+      </c>
+      <c r="D117" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="28">
+        <v>8</v>
+      </c>
+      <c r="C118" s="28">
+        <v>98</v>
+      </c>
+      <c r="D118" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="28">
+        <v>9</v>
+      </c>
+      <c r="C119" s="28">
+        <v>100</v>
+      </c>
+      <c r="D119" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="28">
+        <v>9</v>
+      </c>
+      <c r="C120" s="28">
+        <v>11</v>
+      </c>
+      <c r="D120" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="28">
+        <v>9</v>
+      </c>
+      <c r="C121" s="28">
+        <v>45</v>
+      </c>
+      <c r="D121" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="28">
+        <v>9</v>
+      </c>
+      <c r="C122" s="28">
+        <v>22</v>
+      </c>
+      <c r="D122" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="28">
+        <v>9</v>
+      </c>
+      <c r="C123" s="28">
+        <v>32</v>
+      </c>
+      <c r="D123" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="28">
+        <v>10</v>
+      </c>
+      <c r="C124" s="28">
+        <v>18</v>
+      </c>
+      <c r="D124" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="28">
+        <v>10</v>
+      </c>
+      <c r="C125" s="28">
+        <v>29</v>
+      </c>
+      <c r="D125" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="28">
+        <v>11</v>
+      </c>
+      <c r="C126" s="28">
+        <v>33</v>
+      </c>
+      <c r="D126" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="28">
+        <v>11</v>
+      </c>
+      <c r="C127" s="28">
+        <v>65</v>
+      </c>
+      <c r="D127" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="28">
+        <v>11</v>
+      </c>
+      <c r="C128" s="28">
+        <v>1</v>
+      </c>
+      <c r="D128" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="28">
+        <v>11</v>
+      </c>
+      <c r="C129" s="28">
+        <v>2</v>
+      </c>
+      <c r="D129" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="28">
+        <v>11</v>
+      </c>
+      <c r="C130" s="28">
+        <v>5</v>
+      </c>
+      <c r="D130" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="28">
+        <v>11</v>
+      </c>
+      <c r="C131" s="28">
+        <v>7</v>
+      </c>
+      <c r="D131" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="28">
+        <v>12</v>
+      </c>
+      <c r="C132" s="28">
+        <v>55</v>
+      </c>
+      <c r="D132" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="28">
+        <v>13</v>
+      </c>
+      <c r="C133" s="28">
+        <v>92</v>
+      </c>
+      <c r="D133" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="28">
+        <v>13</v>
+      </c>
+      <c r="C134" s="28">
+        <v>14</v>
+      </c>
+      <c r="D134" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="28">
+        <v>14</v>
+      </c>
+      <c r="C135" s="28">
+        <v>5</v>
+      </c>
+      <c r="D135" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="28">
+        <v>14</v>
+      </c>
+      <c r="C136" s="28">
+        <v>7</v>
+      </c>
+      <c r="D136" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="28">
+        <v>14</v>
+      </c>
+      <c r="C137" s="28">
+        <v>2</v>
+      </c>
+      <c r="D137" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="28">
+        <v>15</v>
+      </c>
+      <c r="C138" s="28">
+        <v>9</v>
+      </c>
+      <c r="D138" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="28">
+        <v>15</v>
+      </c>
+      <c r="C139" s="28">
+        <v>44</v>
+      </c>
+      <c r="D139" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="28">
+        <v>16</v>
+      </c>
+      <c r="C140" s="28">
+        <v>23</v>
+      </c>
+      <c r="D140" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="28">
+        <v>16</v>
+      </c>
+      <c r="C141" s="28">
+        <v>18</v>
+      </c>
+      <c r="D141" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="28">
+        <v>16</v>
+      </c>
+      <c r="C142" s="28">
+        <v>66</v>
+      </c>
+      <c r="D142" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="28">
+        <v>16</v>
+      </c>
+      <c r="C143" s="28">
+        <v>77</v>
+      </c>
+      <c r="D143" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="28">
+        <v>17</v>
+      </c>
+      <c r="C144" s="28">
+        <v>1</v>
+      </c>
+      <c r="D144" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="28">
+        <v>18</v>
+      </c>
+      <c r="C145" s="28">
+        <v>82</v>
+      </c>
+      <c r="D145" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="28">
+        <v>18</v>
+      </c>
+      <c r="C146" s="28">
+        <v>84</v>
+      </c>
+      <c r="D146" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="28">
+        <v>19</v>
+      </c>
+      <c r="C147" s="28">
+        <v>12</v>
+      </c>
+      <c r="D147" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="28">
+        <v>19</v>
+      </c>
+      <c r="C148" s="28">
+        <v>20</v>
+      </c>
+      <c r="D148" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="28">
+        <v>20</v>
+      </c>
+      <c r="C149" s="28">
+        <v>30</v>
+      </c>
+      <c r="D149" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="28">
+        <v>20</v>
+      </c>
+      <c r="C150" s="28">
+        <v>100</v>
+      </c>
+      <c r="D150" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="28">
+        <v>20</v>
+      </c>
+      <c r="C151" s="28">
+        <v>70</v>
+      </c>
+      <c r="D151" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="C155" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="D155" s="28"/>
+      <c r="E155" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="F155" s="28" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="28"/>
+      <c r="C156" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="D156" s="28"/>
+      <c r="E156" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="F156" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="28"/>
+      <c r="C157" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="D157" s="28"/>
+      <c r="E157" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="F157" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="28"/>
+      <c r="C158" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="F158" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="28"/>
+      <c r="C159" s="65" t="s">
+        <v>301</v>
+      </c>
+      <c r="D159" s="28"/>
+      <c r="E159" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="F159" s="28"/>
+    </row>
+    <row r="160" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="64" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E162" s="26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C164" s="71" t="s">
+        <v>541</v>
+      </c>
+      <c r="D164" s="71"/>
+    </row>
+    <row r="165" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E167" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="28">
+        <v>1</v>
+      </c>
+      <c r="C168" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E168" s="28">
+        <v>1</v>
+      </c>
+      <c r="F168" s="28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="28">
+        <v>2</v>
+      </c>
+      <c r="C169" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="E169" s="28">
+        <v>2</v>
+      </c>
+      <c r="F169" s="28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="28">
+        <v>3</v>
+      </c>
+      <c r="C170" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="E170" s="28">
+        <v>3</v>
+      </c>
+      <c r="F170" s="28" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="28">
+        <v>4</v>
+      </c>
+      <c r="C171" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="E171" s="28">
+        <v>4</v>
+      </c>
+      <c r="F171" s="28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="28">
+        <v>5</v>
+      </c>
+      <c r="C172" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="28">
+        <v>6</v>
+      </c>
+      <c r="C173" s="28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="28">
+        <v>7</v>
+      </c>
+      <c r="C174" s="28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="64" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="28">
+        <v>1</v>
+      </c>
+      <c r="C178" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="D178" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="E178" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F178" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G178" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H178" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="28">
+        <v>2</v>
+      </c>
+      <c r="C179" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="D179" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E179" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="F179" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G179" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H179" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="28">
+        <v>3</v>
+      </c>
+      <c r="C180" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="D180" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="E180" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="F180" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G180" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H180" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="28">
+        <v>4</v>
+      </c>
+      <c r="C181" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D181" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="E181" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F181" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G181" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H181" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="28">
+        <v>5</v>
+      </c>
+      <c r="C182" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="D182" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="E182" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F182" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G182" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H182" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="28">
+        <v>6</v>
+      </c>
+      <c r="C183" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D183" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="E183" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="F183" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G183" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H183" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="28">
+        <v>7</v>
+      </c>
+      <c r="C184" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="D184" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="E184" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="F184" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G184" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H184" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="28">
+        <v>8</v>
+      </c>
+      <c r="C185" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="D185" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="E185" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="F185" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G185" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H185" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="28">
+        <v>9</v>
+      </c>
+      <c r="C186" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D186" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="E186" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="F186" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G186" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H186" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="28">
+        <v>10</v>
+      </c>
+      <c r="C187" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D187" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="E187" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F187" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="G187" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H187" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" spans="2:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C67:F70"/>
+    <mergeCell ref="B99:D101"/>
+    <mergeCell ref="C164:D164"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9B7851-90CA-4A13-9B08-77E767C7EF0E}">
+  <dimension ref="A1:A40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="29" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98009278-2941-496E-965B-74D29927B749}">
+  <dimension ref="A2:J46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E3" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="H3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="H5" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="H6" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="40">
+        <v>1</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" s="40">
+        <v>1</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="H7" s="40">
+        <v>1</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="40">
+        <v>2</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="E8" s="40">
+        <v>1</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="H8" s="40">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="40">
+        <v>3</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" s="40">
+        <v>3</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="H9" s="40">
+        <v>3</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="40">
+        <v>4</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="E10" s="40">
+        <v>3</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="H10" s="40">
+        <v>4</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="40">
+        <v>5</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" s="40">
+        <v>2</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="40">
+        <v>6</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="E12" s="40">
+        <v>2</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>350</v>
+      </c>
+      <c r="H15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E16" s="43"/>
+      <c r="J16" s="45" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="H17" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="45" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="H18" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="40">
+        <v>1</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="H19" s="40">
+        <v>1</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="J19" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="40">
+        <v>2</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="H20" s="40">
+        <v>2</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="J20" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="40">
+        <v>3</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="H21" s="40">
+        <v>3</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="J21" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="40">
+        <v>4</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="H22" s="40">
+        <v>4</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="J22" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="40">
+        <v>5</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C24" s="40">
+        <v>6</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>350</v>
+      </c>
+      <c r="H27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E28" s="43"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="B29" s="48"/>
+      <c r="C29" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="H29" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="39"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="H30" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="I30" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="B31" s="48"/>
+      <c r="C31" s="40">
+        <v>1</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="H31" s="40">
+        <v>1</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="40">
+        <v>2</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="H32" s="40">
+        <v>2</v>
+      </c>
+      <c r="I32" s="40" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C33" s="40">
+        <v>3</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="H33" s="40">
+        <v>3</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C34" s="40">
+        <v>4</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="H34" s="40">
+        <v>4</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C35" s="40">
+        <v>5</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C36" s="40">
+        <v>6</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>360</v>
+      </c>
+      <c r="H38" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E39" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="F39" s="41"/>
+      <c r="H39" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E40" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E41" s="40">
+        <v>1</v>
+      </c>
+      <c r="F41" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E42" s="40">
+        <v>2</v>
+      </c>
+      <c r="F42" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E43" s="40">
+        <v>3</v>
+      </c>
+      <c r="F43" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E44" s="40">
+        <v>4</v>
+      </c>
+      <c r="F44" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E45" s="40">
+        <v>5</v>
+      </c>
+      <c r="F45" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E46" s="40">
+        <v>6</v>
+      </c>
+      <c r="F46" s="40">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C31D8E1-EE07-4077-BEA3-A61BD671C8B6}">
+  <dimension ref="A3:J37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B22" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E3" s="43"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="C5" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="39"/>
+      <c r="H5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="H6" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="H7" s="40">
+        <v>1</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>368</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="H8" s="40">
+        <v>2</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="H9" s="40">
+        <v>3</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="H10" s="40">
+        <v>4</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>371</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D16" t="s">
+        <v>387</v>
+      </c>
+      <c r="H16" t="s">
+        <v>388</v>
+      </c>
+      <c r="I16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="47"/>
+      <c r="C17" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="H17" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="41"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>391</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="53">
+        <v>1</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="E19" s="40">
+        <v>2</v>
+      </c>
+      <c r="G19" s="52">
+        <v>1</v>
+      </c>
+      <c r="H19" s="53">
+        <v>1</v>
+      </c>
+      <c r="I19" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="J19" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="53">
+        <v>1</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="E20" s="40">
+        <v>3</v>
+      </c>
+      <c r="G20" s="52">
+        <v>2</v>
+      </c>
+      <c r="H20" s="53">
+        <v>1</v>
+      </c>
+      <c r="I20" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="J20" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="53">
+        <v>1</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="E21" s="40">
+        <v>4</v>
+      </c>
+      <c r="G21" s="52">
+        <v>3</v>
+      </c>
+      <c r="H21" s="53">
+        <v>1</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="J21" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="40">
+        <v>2</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="E22" s="40">
+        <v>5</v>
+      </c>
+      <c r="G22" s="52">
+        <v>4</v>
+      </c>
+      <c r="H22" s="40">
+        <v>2</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="J22" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="40">
+        <v>2</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="E23" s="40">
+        <v>2</v>
+      </c>
+      <c r="G23" s="52">
+        <v>5</v>
+      </c>
+      <c r="H23" s="40">
+        <v>2</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="J23" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C24" s="53">
+        <v>3</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="E24" s="40">
+        <v>3</v>
+      </c>
+      <c r="G24" s="52">
+        <v>6</v>
+      </c>
+      <c r="H24" s="53">
+        <v>3</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="J24" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="53">
+        <v>3</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="E25" s="40">
+        <v>8</v>
+      </c>
+      <c r="G25" s="52">
+        <v>7</v>
+      </c>
+      <c r="H25" s="53">
+        <v>3</v>
+      </c>
+      <c r="I25" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="J25" s="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C26" s="40">
+        <v>4</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="E26" s="40">
+        <v>2</v>
+      </c>
+      <c r="G26" s="52">
+        <v>8</v>
+      </c>
+      <c r="H26" s="40">
+        <v>4</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="J26" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="40">
+        <v>4</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="E27" s="40">
+        <v>2</v>
+      </c>
+      <c r="G27" s="52">
+        <v>9</v>
+      </c>
+      <c r="H27" s="40">
+        <v>4</v>
+      </c>
+      <c r="I27" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="J27" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="40">
+        <v>4</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="E28" s="40">
+        <v>2</v>
+      </c>
+      <c r="G28" s="52">
+        <v>10</v>
+      </c>
+      <c r="H28" s="40">
+        <v>4</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="J28" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="48"/>
+      <c r="C29" s="40">
+        <v>4</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="E29" s="40">
+        <v>2</v>
+      </c>
+      <c r="G29" s="52">
+        <v>11</v>
+      </c>
+      <c r="H29" s="40">
+        <v>4</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="J29" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="48"/>
+      <c r="C30" s="40">
+        <v>4</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="E30" s="40">
+        <v>2</v>
+      </c>
+      <c r="F30" s="39"/>
+      <c r="G30" s="52">
+        <v>12</v>
+      </c>
+      <c r="H30" s="40">
+        <v>4</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="J30" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="48"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E33" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E34" s="50" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E35" s="50" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E36" s="63" t="s">
+        <v>536</v>
+      </c>
+      <c r="H36" s="39"/>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E37" s="50" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE18C13-4600-49ED-85A7-709B9406041B}">
+  <dimension ref="A3:K36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E3" s="43"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="C5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="H5" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="K5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="40">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>373</v>
+      </c>
+      <c r="H7" s="40">
+        <v>15</v>
+      </c>
+      <c r="I7" s="51">
+        <v>50</v>
+      </c>
+      <c r="J7" s="52">
+        <v>600</v>
+      </c>
+      <c r="K7" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="40">
+        <v>2</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>374</v>
+      </c>
+      <c r="H8" s="40">
+        <v>16</v>
+      </c>
+      <c r="I8" s="51">
+        <v>60</v>
+      </c>
+      <c r="J8" s="52">
+        <v>800</v>
+      </c>
+      <c r="K8" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="40">
+        <v>3</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="H9" s="40">
+        <v>17</v>
+      </c>
+      <c r="I9" s="51">
+        <v>20</v>
+      </c>
+      <c r="J9" s="52">
+        <v>1200</v>
+      </c>
+      <c r="K9" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="40">
+        <v>4</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="H10" s="40">
+        <v>18</v>
+      </c>
+      <c r="I10" s="51">
+        <v>40</v>
+      </c>
+      <c r="J10" s="52">
+        <v>860</v>
+      </c>
+      <c r="K10" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="40">
+        <v>5</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>368</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="40">
+        <v>6</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J16" s="45"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="47"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F18" s="45"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F19" s="45"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F22" s="39"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E28" s="43"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="48"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="48"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="48"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>